--- a/documents/Paper Work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
+++ b/documents/Paper Work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -457,7 +457,7 @@
     <t>UI and Model Creation</t>
   </si>
   <si>
-    <t>Database and Business Logic Implementation</t>
+    <t>Database Connection and Business Logic Implementation</t>
   </si>
   <si>
     <t>Unit Test Execution</t>
@@ -484,6 +484,9 @@
     <t>User Story #4</t>
   </si>
   <si>
+    <t>UI Creation</t>
+  </si>
+  <si>
     <t>User Story #5</t>
   </si>
   <si>
@@ -501,10 +504,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -645,15 +648,54 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,37 +716,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -714,7 +725,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,58 +777,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,19 +840,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,37 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +906,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,55 +942,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,19 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,17 +1210,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,7 +1223,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,17 +1258,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1295,6 +1275,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1302,11 +1293,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,143 +1312,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1461,24 +1458,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="21" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1497,7 +1494,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="21" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1509,188 +1506,179 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="6" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="58" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2139,7 +2127,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -2148,7 +2136,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3886,7 +3874,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14644370" y="723900"/>
-        <a:ext cx="10060940" cy="9006205"/>
+        <a:ext cx="10060940" cy="9117965"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4628,306 +4616,306 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.78" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.55333333333333" style="36" customWidth="true"/>
-    <col min="2" max="2" width="8.88666666666667" style="37" customWidth="true"/>
-    <col min="3" max="3" width="11.5533333333333" style="38" customWidth="true"/>
-    <col min="4" max="6" width="20.6666666666667" style="37" customWidth="true"/>
-    <col min="7" max="7" width="17.8866666666667" style="39" customWidth="true"/>
-    <col min="8" max="16384" width="9.78" style="37"/>
+    <col min="1" max="1" width="4.55333333333333" style="33" customWidth="true"/>
+    <col min="2" max="2" width="8.88666666666667" style="34" customWidth="true"/>
+    <col min="3" max="3" width="11.5533333333333" style="35" customWidth="true"/>
+    <col min="4" max="6" width="20.6666666666667" style="34" customWidth="true"/>
+    <col min="7" max="7" width="17.8866666666667" style="36" customWidth="true"/>
+    <col min="8" max="16384" width="9.78" style="34"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="2:7">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" ht="18" spans="2:7">
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="77"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" ht="18" spans="2:7">
-      <c r="B3" s="44"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" ht="18" spans="2:7">
-      <c r="B4" s="44"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="78"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" ht="18" spans="2:7">
-      <c r="B5" s="44"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" ht="20.25" customHeight="true" spans="2:7">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="79"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" ht="21" customHeight="true" spans="2:7">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="79"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" ht="29.25" customHeight="true" spans="2:7">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="80"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" ht="29.25" customHeight="true" spans="2:7">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="80"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" ht="55.5" customHeight="true" spans="2:7">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="79"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" ht="18.75" customHeight="true" spans="2:7">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" ht="21" spans="2:7">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="82"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="83"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="83"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="83"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="83"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="83"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="83"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="83"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="80"/>
     </row>
     <row r="20" ht="15.75" spans="2:8">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="83"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="83"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="83"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" ht="55.5" customHeight="true" spans="2:8">
-      <c r="B24" s="55"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" ht="15" customHeight="true" spans="2:8">
-      <c r="B25" s="55"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="36"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" ht="15" customHeight="true" spans="2:8">
-      <c r="B26" s="55"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="36"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" ht="15" customHeight="true" spans="2:8">
-      <c r="B27" s="55"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="36"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" ht="15" customHeight="true" spans="2:8">
-      <c r="B28" s="55"/>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" s="35" customFormat="true" spans="1:7">
-      <c r="A29" s="64"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="86"/>
-    </row>
-    <row r="30" s="35" customFormat="true" spans="1:7">
-      <c r="A30" s="64"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="86"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" s="32" customFormat="true" spans="1:7">
+      <c r="A29" s="61"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="83"/>
+    </row>
+    <row r="30" s="32" customFormat="true" spans="1:7">
+      <c r="A30" s="61"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="83"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="55"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="87"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="84"/>
     </row>
     <row r="32" ht="13.5" spans="2:7">
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="89"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
     </row>
     <row r="33" customHeight="true" spans="9:9">
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="76"/>
+      <c r="B35" s="73"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -4959,25 +4947,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.78" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.78" style="20" customWidth="true"/>
-    <col min="2" max="2" width="7.78" style="21" customWidth="true"/>
-    <col min="3" max="3" width="41.44" style="21" customWidth="true"/>
-    <col min="4" max="4" width="89.22" style="21" customWidth="true"/>
-    <col min="5" max="5" width="15.8866666666667" style="21" customWidth="true"/>
-    <col min="6" max="6" width="22.78" style="22" customWidth="true"/>
-    <col min="7" max="16384" width="9.78" style="21"/>
+    <col min="1" max="1" width="15.78" style="17" customWidth="true"/>
+    <col min="2" max="2" width="7.78" style="18" customWidth="true"/>
+    <col min="3" max="3" width="41.44" style="18" customWidth="true"/>
+    <col min="4" max="4" width="89.22" style="18" customWidth="true"/>
+    <col min="5" max="5" width="15.8866666666667" style="18" customWidth="true"/>
+    <col min="6" max="6" width="22.78" style="19" customWidth="true"/>
+    <col min="7" max="16384" width="9.78" style="18"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="57" customHeight="true" spans="2:15">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
@@ -4988,101 +4976,101 @@
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" ht="60" customHeight="true" spans="3:4">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" ht="28.5" customHeight="true" spans="3:4">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" ht="28.5" customHeight="true" spans="3:4">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" ht="13.5" customHeight="true" spans="3:4">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5092,8 +5080,8 @@
     <row r="37" ht="119.25" customHeight="true"/>
     <row r="38" ht="177.75" customHeight="true"/>
     <row r="40" spans="1:2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="44" ht="354.75" customHeight="true"/>
     <row r="48" ht="360.75" customHeight="true"/>
@@ -9136,10 +9124,10 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.22" defaultRowHeight="16.5"/>
@@ -9929,18 +9917,34 @@
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -9962,16 +9966,32 @@
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -9989,20 +10009,36 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21" ht="25.2" customHeight="true" spans="1:27">
+    <row r="21" ht="34" customHeight="true" spans="1:27">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -10024,16 +10060,32 @@
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -10053,7 +10105,7 @@
     </row>
     <row r="23" ht="25.2" customHeight="true" spans="1:27">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10216,7 +10268,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10">
         <f>SUM(F3:F27)</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(G4:G27)</f>
@@ -10228,7 +10280,7 @@
       </c>
       <c r="I28" s="10">
         <f>SUM(I3:I27)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28" s="10">
         <f>SUM(J3:J27)</f>
@@ -13757,7 +13809,7 @@
     </row>
     <row r="23" ht="25.2" customHeight="true" spans="1:27">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -17459,7 +17511,7 @@
     </row>
     <row r="23" ht="25.2" customHeight="true" spans="1:27">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -20456,17 +20508,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Paper Work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
+++ b/documents/Paper Work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8235" activeTab="2"/>
+    <workbookView windowWidth="15360" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -443,10 +443,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -571,14 +571,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -594,14 +586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -609,8 +593,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -625,15 +624,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +637,13 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,8 +662,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,46 +714,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -797,7 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,19 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,25 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,19 +881,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,49 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1168,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,214 +1246,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="21" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1433,7 +1433,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="21" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1457,179 +1457,179 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="21" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="58" fontId="10" fillId="6" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -4275,9 +4275,9 @@
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34:D37"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.22" defaultRowHeight="16.5"/>
@@ -8986,9 +8986,6 @@
     <mergeCell ref="D69:D72"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:K27">
       <formula1>0</formula1>
       <formula2>24</formula2>
@@ -8996,6 +8993,9 @@
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F27">
       <formula1>0</formula1>
       <formula2>40</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:H1">
       <formula1>"Simple,Average,Complex"</formula1>
@@ -12686,9 +12686,6 @@
     <mergeCell ref="C1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:K27">
       <formula1>0</formula1>
       <formula2>24</formula2>
@@ -12696,6 +12693,9 @@
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F27">
       <formula1>0</formula1>
       <formula2>40</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:H1">
       <formula1>"Simple,Average,Complex"</formula1>

--- a/documents/Paper Work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
+++ b/documents/Paper Work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8235" activeTab="3"/>
+    <workbookView windowWidth="19665" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="131">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -412,18 +412,6 @@
     <t>Schedule Flight</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_2 </t>
-  </si>
-  <si>
-    <t>Task_5</t>
-  </si>
-  <si>
-    <t>Task_6</t>
-  </si>
-  <si>
-    <t>Task_7</t>
-  </si>
-  <si>
     <t>User Story #6a</t>
   </si>
   <si>
@@ -481,52 +469,28 @@
     <t>Book Tickets</t>
   </si>
   <si>
+    <t>Business Login Implementation and Database Connection</t>
+  </si>
+  <si>
     <t>User Story #11a</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Redirection</t>
   </si>
   <si>
     <t>User Story #11b</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_3 </t>
-  </si>
-  <si>
-    <t>Task_8</t>
-  </si>
-  <si>
-    <t>Task_9</t>
-  </si>
-  <si>
-    <t>Task_10</t>
-  </si>
-  <si>
     <t>User Story #11c</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_4 </t>
-  </si>
-  <si>
-    <t>Task_11</t>
-  </si>
-  <si>
-    <t>Task_12</t>
-  </si>
-  <si>
-    <t>Task_13</t>
+    <t>Business Login Implement</t>
   </si>
   <si>
     <t>User Story #11d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_5 </t>
-  </si>
-  <si>
-    <t>Task_14</t>
-  </si>
-  <si>
-    <t>Task_15</t>
-  </si>
-  <si>
-    <t>Task_16</t>
   </si>
   <si>
     <t>User Story #14</t>
@@ -535,16 +499,7 @@
     <t>Available Seats</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_6 </t>
-  </si>
-  <si>
-    <t>Task_17</t>
-  </si>
-  <si>
-    <t>Task_18</t>
-  </si>
-  <si>
-    <t>Task_19</t>
+    <t>Task_1</t>
   </si>
   <si>
     <t>User Story #12</t>
@@ -553,16 +508,7 @@
     <t>Payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_7 </t>
-  </si>
-  <si>
-    <t>Task_20</t>
-  </si>
-  <si>
-    <t>Task_21</t>
-  </si>
-  <si>
-    <t>Task_22</t>
+    <t>Business Login Implementation and Database connection</t>
   </si>
   <si>
     <t>User Story #13</t>
@@ -571,34 +517,10 @@
     <t>Search Option</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_8 </t>
-  </si>
-  <si>
-    <t>Task_23</t>
-  </si>
-  <si>
-    <t>Task_24</t>
-  </si>
-  <si>
-    <t>Task_25</t>
-  </si>
-  <si>
     <t>User Story #15</t>
   </si>
   <si>
     <t>View History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_9 </t>
-  </si>
-  <si>
-    <t>Task_26</t>
-  </si>
-  <si>
-    <t>Task_27</t>
-  </si>
-  <si>
-    <t>Task_28</t>
   </si>
   <si>
     <t>User Story #18</t>
@@ -607,76 +529,19 @@
     <t>Generate Report</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_10 </t>
-  </si>
-  <si>
-    <t>Task_29</t>
-  </si>
-  <si>
-    <t>Task_30</t>
-  </si>
-  <si>
-    <t>Task_31</t>
-  </si>
-  <si>
     <t>User Story #18a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_11 </t>
-  </si>
-  <si>
-    <t>Task_32</t>
-  </si>
-  <si>
-    <t>Task_33</t>
-  </si>
-  <si>
-    <t>Task_34</t>
   </si>
   <si>
     <t>User Story #18b</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_12 </t>
-  </si>
-  <si>
-    <t>Task_35</t>
-  </si>
-  <si>
-    <t>Task_36</t>
-  </si>
-  <si>
-    <t>Task_37</t>
-  </si>
-  <si>
     <t>User Story #19</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_13 </t>
-  </si>
-  <si>
-    <t>Task_38</t>
-  </si>
-  <si>
-    <t>Task_39</t>
-  </si>
-  <si>
-    <t>Task_40</t>
+    <t>Create Survey</t>
   </si>
   <si>
     <t>User Story #19a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_14 </t>
-  </si>
-  <si>
-    <t>Task_41</t>
-  </si>
-  <si>
-    <t>Task_42</t>
-  </si>
-  <si>
-    <t>Task_43</t>
   </si>
   <si>
     <t>User Story #20</t>
@@ -685,34 +550,10 @@
     <t>User Feedback</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_15 </t>
-  </si>
-  <si>
-    <t>Task_44</t>
-  </si>
-  <si>
-    <t>Task_45</t>
-  </si>
-  <si>
-    <t>Task_46</t>
-  </si>
-  <si>
     <t>User Story #21</t>
   </si>
   <si>
     <t>Survey Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task_16 </t>
-  </si>
-  <si>
-    <t>Task_47</t>
-  </si>
-  <si>
-    <t>Task_48</t>
-  </si>
-  <si>
-    <t>Task_49</t>
   </si>
   <si>
     <t>User Story #22</t>
@@ -721,19 +562,7 @@
     <t>Forget Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_17 </t>
-  </si>
-  <si>
-    <t>Task_50</t>
-  </si>
-  <si>
-    <t>Task_51</t>
-  </si>
-  <si>
     <t>Validation and Database Connection</t>
-  </si>
-  <si>
-    <t>Task_52</t>
   </si>
   <si>
     <t>User Story #23</t>
@@ -742,19 +571,7 @@
     <t>Logout</t>
   </si>
   <si>
-    <t xml:space="preserve">Task_18 </t>
-  </si>
-  <si>
-    <t>Task_53</t>
-  </si>
-  <si>
-    <t>Task_54</t>
-  </si>
-  <si>
     <t>Business Login Implementation</t>
-  </si>
-  <si>
-    <t>Task_55</t>
   </si>
   <si>
     <t>In-Progress</t>
@@ -771,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -906,32 +723,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,6 +741,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,14 +763,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,21 +793,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,6 +801,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,7 +822,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1026,6 +836,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1034,24 +867,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,13 +937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,13 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,97 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,13 +997,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,19 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,6 +1307,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1504,17 +1336,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,9 +1357,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,6 +1381,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1572,190 +1404,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="24" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="21" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1776,7 +1593,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="21" applyFont="true" applyFill="true" applyAlignment="true"/>
@@ -1789,179 +1606,179 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="21" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="15" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="58" fontId="11" fillId="6" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="true" applyFill="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="true" applyFill="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="true"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="1" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="2" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2033,10 +1850,10 @@
   <c:roundedCorners val="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2046,40 +1863,36 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-                <a:cs typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-              </a:rPr>
-              <a:t>SPRINT BURNDOWN</a:t>
+              <a:rPr lang="x-none" altLang="en-US"/>
+              <a:t>Spring Burndown Chart</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-              <a:cs typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="x-none" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="false"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
@@ -2090,59 +1903,35 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Sprint Burndown Chart"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sprint Burndown Chart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="true"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint -1'!$G$2:$K$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint -1'!$H$2:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DAY 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DAY 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DAY 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DAY 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint -1'!$F$88:$K$88</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>'Sprint -1'!$G$88:$K$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2175,39 +1964,54 @@
           <c:showPercent val="false"/>
           <c:showBubbleSize val="false"/>
         </c:dLbls>
-        <c:marker val="false"/>
+        <c:marker val="true"/>
         <c:smooth val="false"/>
-        <c:axId val="-2090279592"/>
-        <c:axId val="-2090276584"/>
+        <c:axId val="78060777"/>
+        <c:axId val="526519679"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090279592"/>
+        <c:axId val="78060777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="false"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090276584"/>
+        <c:crossAx val="526519679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,49 +2019,66 @@
         <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090276584"/>
+        <c:axId val="526519679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="true"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090279592"/>
+        <c:crossAx val="78060777"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="bg1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="E5EEF6"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="9000000" scaled="false"/>
-        </a:gradFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="true"/>
@@ -2265,28 +2086,26 @@
     <c:showDLblsOverMax val="false"/>
   </c:chart>
   <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="114300" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
-        <a:schemeClr val="bg1">
-          <a:lumMod val="75000"/>
-          <a:alpha val="40000"/>
-        </a:schemeClr>
-      </a:outerShdw>
-    </a:effectLst>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US">
-          <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -2305,10 +2124,10 @@
   <c:roundedCorners val="false"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2318,40 +2137,36 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-                <a:cs typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-              </a:rPr>
-              <a:t>SPRINT BURNDOWN</a:t>
+              <a:rPr lang="x-none" altLang="en-US"/>
+              <a:t>Spring Burndown Chart</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-              <a:cs typeface="Arial" panose="02080604020202020204" pitchFamily="7" charset="0"/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="x-none" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="false"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="false"/>
     <c:plotArea>
@@ -2362,59 +2177,35 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"Sprint Burndown Chart"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sprint Burndown Chart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="true"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint -2'!$G$2:$K$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Sprint -2'!$H$2:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DAY 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DAY 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DAY 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DAY 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Sprint -2'!$F$93:$K$93</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>'Sprint -2'!$G$93:$K$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2423,7 +2214,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2447,39 +2238,54 @@
           <c:showPercent val="false"/>
           <c:showBubbleSize val="false"/>
         </c:dLbls>
-        <c:marker val="false"/>
+        <c:marker val="true"/>
         <c:smooth val="false"/>
-        <c:axId val="-2090279592"/>
-        <c:axId val="-2090276584"/>
+        <c:axId val="684062036"/>
+        <c:axId val="321703841"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090279592"/>
+        <c:axId val="684062036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="false"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090276584"/>
+        <c:crossAx val="321703841"/>
         <c:crosses val="autoZero"/>
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,49 +2293,66 @@
         <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090276584"/>
+        <c:axId val="321703841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="true"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090279592"/>
+        <c:crossAx val="684062036"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="bg1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="E5EEF6"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="9000000" scaled="false"/>
-        </a:gradFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="true"/>
@@ -2537,35 +2360,1134 @@
     <c:showDLblsOverMax val="false"/>
   </c:chart>
   <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="114300" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
-        <a:schemeClr val="bg1">
-          <a:lumMod val="75000"/>
-          <a:alpha val="40000"/>
-        </a:schemeClr>
-      </a:outerShdw>
-    </a:effectLst>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US">
-          <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="false"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3489,36 +4411,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="13533755" y="723900"/>
-        <a:ext cx="10060940" cy="8876665"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -3544,7 +4436,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19315430" y="0"/>
+          <a:off x="20238085" y="0"/>
           <a:ext cx="233680" cy="45085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3609,32 +4501,27 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>245745</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>405765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>319405</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13533755" y="723900"/>
-        <a:ext cx="10060940" cy="8876665"/>
+        <a:off x="14638655" y="1129665"/>
+        <a:ext cx="8999220" cy="6438265"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3644,6 +4531,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -3669,7 +4561,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19315430" y="0"/>
+          <a:off x="20415885" y="0"/>
           <a:ext cx="233680" cy="45085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3732,6 +4624,36 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>530860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14804390" y="1196340"/>
+        <a:ext cx="8444865" cy="6222365"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4638,15 +5560,16 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.22" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="15.22" style="2" customWidth="true"/>
+    <col min="1" max="1" width="15.22" style="2" customWidth="true"/>
+    <col min="2" max="2" width="24.9066666666667" style="2" customWidth="true"/>
     <col min="3" max="3" width="9.55333333333333" style="3" customWidth="true"/>
     <col min="4" max="4" width="15.8866666666667" style="2" customWidth="true"/>
     <col min="5" max="5" width="10.22" style="2" customWidth="true"/>
@@ -6332,7 +7255,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
@@ -6381,7 +7304,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>65</v>
@@ -6428,7 +7351,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>59</v>
@@ -6473,9 +7396,9 @@
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" ht="25.5" spans="1:27">
       <c r="A42" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>55</v>
@@ -6522,7 +7445,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7">
@@ -6555,7 +7478,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
@@ -6604,7 +7527,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>65</v>
@@ -6651,10 +7574,10 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -6696,9 +7619,9 @@
       <c r="Z46" s="14"/>
       <c r="AA46" s="14"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" ht="25.5" spans="1:27">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>55</v>
@@ -6745,7 +7668,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7">
@@ -6778,7 +7701,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -6825,12 +7748,12 @@
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" ht="25.5" spans="1:27">
       <c r="A50" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -6874,7 +7797,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>68</v>
@@ -6919,9 +7842,9 @@
       <c r="Z51" s="14"/>
       <c r="AA51" s="14"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" ht="25.5" spans="1:27">
       <c r="A52" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>55</v>
@@ -6966,12 +7889,12 @@
       <c r="Z52" s="14"/>
       <c r="AA52" s="14"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" ht="25.5" spans="1:27">
       <c r="A53" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7">
         <v>3</v>
@@ -7193,7 +8116,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7">
@@ -7325,7 +8248,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -7416,7 +8339,7 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7">
@@ -7501,7 +8424,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -7639,10 +8562,10 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="7">
         <v>5</v>
@@ -7773,7 +8696,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -7864,10 +8787,10 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C73" s="7">
         <v>2</v>
@@ -8089,10 +9012,10 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C78" s="7">
         <v>5</v>
@@ -8223,7 +9146,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -8312,12 +9235,12 @@
       <c r="Z82" s="14"/>
       <c r="AA82" s="14"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" ht="25.5" spans="1:27">
       <c r="A83" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C83" s="7">
         <v>3</v>
@@ -8349,7 +9272,7 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>47</v>
@@ -8396,12 +9319,12 @@
       <c r="Z84" s="14"/>
       <c r="AA84" s="14"/>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" ht="25.5" spans="1:27">
       <c r="A85" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -8445,7 +9368,7 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>65</v>
@@ -8490,9 +9413,9 @@
       <c r="Z86" s="14"/>
       <c r="AA86" s="14"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" ht="25.5" spans="1:27">
       <c r="A87" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>55</v>
@@ -8539,7 +9462,7 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -8550,11 +9473,11 @@
         <v>232</v>
       </c>
       <c r="G88" s="15">
-        <f>SUM(G3:G87)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H88" s="15">
-        <f>SUM(H3:H87)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="I88" s="15">
@@ -9629,9 +10552,6 @@
     <mergeCell ref="D84:D87"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28 F29 H29 J29 F30 H30 J30 F31 H31 J31 F32 H32 J32 F33 F34 H34 J34 F35 H35 J35 F36 H36 J36 F37 H37 J37 F38 F39 H39 J39 F40 H40 J40 F41 H41 J41 F42 H42 J42 F43 F44 H44 J44 F45 H45 J45 F46 H46 J46 F47 H47 J47 F48 F49 H49 J49 F50 H50 J50 F51 H51 J51 F52 H52 J52 F58 F59 H59 J59 F60 H60 J60 F61 H61 J61 F62 H62 J62 F63 F64 H64 J64 F65 H65 J65 F66 H66 J66 F67 H67 J67 F68 F69 H69 J69 F70 H70 J70 F71 H71 J71 F72 H72 J72 F83 F84 F85 F86 F87 F3:F27">
       <formula1>0</formula1>
       <formula2>40</formula2>
@@ -9639,6 +10559,9 @@
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19 G28:K28 G29 I29 K29 G30 I30 K30 G31 I31 K31 G32 I32 K32 G33 H33 I33 J33 K33 G34 I34 K34 G35 I35 K35 G36 I36 K36 G37 I37 K37 G38 H38 I38 J38 K38 G39 I39 K39 G40 I40 K40 G41 I41 K41 G42 I42 K42 G43 H43 I43 J43 K43 G44 I44 K44 G45 I45 K45 G46 I46 K46 G47 I47 K47 G48 H48 I48 J48 K48 G49 I49 K49 G50 I50 K50 G51 I51 K51 G52 I52 K52 G58 H58 I58 J58 K58 G59 I59 K59 G60 I60 K60 G61 I61 K61 G62 I62 K62 G63 H63 I63 J63 K63 G64 I64 K64 G65 I65 K65 G66 I66 K66 G67 I67 K67 G68 H68 I68 J68 K68 G69 I69 K69 G70 I70 K70 G71 I71 K71 G72 I72 K72 G3:G27 H3:H18 H19:H22 H23:H27 I3:I18 I23:I27 K20:K22 J3:K18 J23:K27 I19:J22">
       <formula1>0</formula1>
       <formula2>24</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:H1">
       <formula1>"Simple,Average,Complex"</formula1>
@@ -9659,18 +10582,19 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.22" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="15.22" style="2" customWidth="true"/>
+    <col min="1" max="1" width="15.22" style="2" customWidth="true"/>
+    <col min="2" max="2" width="24.8533333333333" style="2" customWidth="true"/>
     <col min="3" max="3" width="9.55333333333333" style="3" customWidth="true"/>
     <col min="4" max="4" width="15.8866666666667" style="2" customWidth="true"/>
-    <col min="5" max="5" width="10.22" style="2" customWidth="true"/>
+    <col min="5" max="5" width="12.14" style="2" customWidth="true"/>
     <col min="6" max="6" width="12.22" style="2" customWidth="true"/>
     <col min="7" max="11" width="12.22" style="2"/>
     <col min="12" max="12" width="2" style="2" customWidth="true"/>
@@ -9747,10 +10671,10 @@
     </row>
     <row r="3" ht="25.2" customHeight="true" spans="1:27">
       <c r="A3" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7">
         <v>5</v>
@@ -9784,12 +10708,16 @@
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="9">
         <v>5</v>
       </c>
@@ -9797,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
@@ -9829,10 +10757,14 @@
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="9">
         <v>5</v>
       </c>
@@ -9840,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
@@ -9868,14 +10800,18 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
-    <row r="6" ht="25.2" customHeight="true" spans="1:27">
+    <row r="6" ht="27" customHeight="true" spans="1:27">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="9">
         <v>5</v>
       </c>
@@ -9883,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -9915,10 +10851,14 @@
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="9">
         <v>5</v>
       </c>
@@ -9926,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -9956,7 +10896,7 @@
     </row>
     <row r="8" ht="25.2" customHeight="true" spans="1:27">
       <c r="A8" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7">
@@ -9989,14 +10929,18 @@
     </row>
     <row r="9" ht="25.2" customHeight="true" spans="1:27">
       <c r="A9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F9" s="9">
         <v>5</v>
       </c>
@@ -10004,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -10034,12 +10978,16 @@
     </row>
     <row r="10" ht="25.2" customHeight="true" spans="1:27">
       <c r="A10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F10" s="9">
         <v>5</v>
       </c>
@@ -10047,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -10077,12 +11025,16 @@
     </row>
     <row r="11" ht="25.2" customHeight="true" spans="1:27">
       <c r="A11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F11" s="9">
         <v>5</v>
       </c>
@@ -10090,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
@@ -10120,12 +11072,16 @@
     </row>
     <row r="12" ht="25.2" customHeight="true" spans="1:27">
       <c r="A12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -10133,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -10163,7 +11119,7 @@
     </row>
     <row r="13" ht="25.2" customHeight="true" spans="1:27">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7">
@@ -10196,14 +11152,18 @@
     </row>
     <row r="14" ht="25.2" customHeight="true" spans="1:27">
       <c r="A14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F14" s="9">
         <v>5</v>
       </c>
@@ -10211,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -10241,12 +11201,16 @@
     </row>
     <row r="15" ht="25.2" customHeight="true" spans="1:27">
       <c r="A15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F15" s="9">
         <v>5</v>
       </c>
@@ -10254,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -10284,12 +11248,16 @@
     </row>
     <row r="16" ht="25.2" customHeight="true" spans="1:27">
       <c r="A16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F16" s="9">
         <v>5</v>
       </c>
@@ -10297,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -10327,12 +11295,16 @@
     </row>
     <row r="17" ht="25.2" customHeight="true" spans="1:27">
       <c r="A17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F17" s="9">
         <v>5</v>
       </c>
@@ -10340,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="9">
         <v>0</v>
@@ -10370,7 +11342,7 @@
     </row>
     <row r="18" ht="25.2" customHeight="true" spans="1:27">
       <c r="A18" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7">
@@ -10403,14 +11375,18 @@
     </row>
     <row r="19" ht="25.2" customHeight="true" spans="1:27">
       <c r="A19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F19" s="9">
         <v>3</v>
       </c>
@@ -10418,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9">
         <v>0</v>
@@ -10448,12 +11424,16 @@
     </row>
     <row r="20" ht="25.2" customHeight="true" spans="1:27">
       <c r="A20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F20" s="9">
         <v>3</v>
       </c>
@@ -10461,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -10491,12 +11471,16 @@
     </row>
     <row r="21" ht="25.2" customHeight="true" spans="1:27">
       <c r="A21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F21" s="9">
         <v>3</v>
       </c>
@@ -10504,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9">
         <v>0</v>
@@ -10534,12 +11518,16 @@
     </row>
     <row r="22" ht="25.2" customHeight="true" spans="1:27">
       <c r="A22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="9">
         <v>3</v>
       </c>
@@ -10547,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -10577,7 +11565,7 @@
     </row>
     <row r="23" ht="25.2" customHeight="true" spans="1:27">
       <c r="A23" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7">
@@ -10610,14 +11598,18 @@
     </row>
     <row r="24" ht="25.2" customHeight="true" spans="1:27">
       <c r="A24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F24" s="9">
         <v>3</v>
       </c>
@@ -10625,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="9">
         <v>0</v>
@@ -10655,12 +11647,16 @@
     </row>
     <row r="25" ht="25.2" customHeight="true" spans="1:27">
       <c r="A25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F25" s="9">
         <v>3</v>
       </c>
@@ -10668,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
@@ -10698,12 +11694,16 @@
     </row>
     <row r="26" ht="25.2" customHeight="true" spans="1:27">
       <c r="A26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F26" s="9">
         <v>3</v>
       </c>
@@ -10711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9">
         <v>0</v>
@@ -10741,12 +11741,16 @@
     </row>
     <row r="27" ht="25.2" customHeight="true" spans="1:27">
       <c r="A27" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F27" s="9">
         <v>3</v>
       </c>
@@ -10754,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -10784,10 +11788,10 @@
     </row>
     <row r="28" ht="34.95" customHeight="true" spans="1:27">
       <c r="A28" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C28" s="7">
         <v>5</v>
@@ -10819,14 +11823,18 @@
     </row>
     <row r="29" ht="21" customHeight="true" spans="1:27">
       <c r="A29" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F29" s="9">
         <v>5</v>
       </c>
@@ -10834,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
@@ -10864,12 +11872,16 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F30" s="9">
         <v>5</v>
       </c>
@@ -10877,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -10907,12 +11919,16 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F31" s="9">
         <v>5</v>
       </c>
@@ -10920,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="9">
         <v>0</v>
@@ -10950,12 +11966,16 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F32" s="9">
         <v>5</v>
       </c>
@@ -10963,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="9">
         <v>0</v>
@@ -10993,10 +12013,10 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C33" s="7">
         <v>3</v>
@@ -11028,14 +12048,18 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F34" s="9">
         <v>3</v>
       </c>
@@ -11043,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="9">
         <v>0</v>
@@ -11073,12 +12097,16 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F35" s="9">
         <v>3</v>
       </c>
@@ -11086,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="9">
         <v>0</v>
@@ -11114,14 +12142,18 @@
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" ht="25.5" spans="1:27">
       <c r="A36" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F36" s="9">
         <v>3</v>
       </c>
@@ -11129,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="9">
         <v>0</v>
@@ -11159,12 +12191,16 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F37" s="9">
         <v>3</v>
       </c>
@@ -11172,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
@@ -11202,10 +12238,10 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -11237,7 +12273,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -11282,7 +12318,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="9" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
@@ -11325,7 +12361,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="9" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
@@ -11368,7 +12404,7 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="9" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="12"/>
@@ -11411,10 +12447,10 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
@@ -11446,7 +12482,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="9" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -11491,7 +12527,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="9" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
@@ -11534,7 +12570,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="9" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
@@ -11577,7 +12613,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="9" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="12"/>
@@ -11620,10 +12656,10 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="7" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C48" s="7">
         <v>5</v>
@@ -11655,7 +12691,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="9" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -11700,7 +12736,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="9" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
@@ -11743,7 +12779,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="9" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
@@ -11786,7 +12822,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="9" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="12"/>
@@ -11829,7 +12865,7 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="7" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7">
@@ -11862,7 +12898,7 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="9" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -11907,7 +12943,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="9" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="11"/>
@@ -11950,7 +12986,7 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="9" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="11"/>
@@ -11993,7 +13029,7 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="9" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="12"/>
@@ -12036,7 +13072,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7">
@@ -12069,7 +13105,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="9" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -12114,7 +13150,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="9" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="11"/>
@@ -12157,7 +13193,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="9" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="11"/>
@@ -12200,7 +13236,7 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="9" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="12"/>
@@ -12243,9 +13279,11 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="C63" s="7">
         <v>5</v>
       </c>
@@ -12276,7 +13314,7 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="9" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
@@ -12321,7 +13359,7 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="9" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="11"/>
@@ -12364,7 +13402,7 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="9" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="11"/>
@@ -12407,7 +13445,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="9" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="12"/>
@@ -12450,7 +13488,7 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7">
@@ -12483,7 +13521,7 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="9" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="10"/>
@@ -12528,7 +13566,7 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="9" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="11"/>
@@ -12571,7 +13609,7 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="9" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="11"/>
@@ -12614,7 +13652,7 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="9" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="12"/>
@@ -12657,10 +13695,10 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C73" s="7">
         <v>5</v>
@@ -12692,7 +13730,7 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="9" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
@@ -12737,7 +13775,7 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="9" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="11"/>
@@ -12780,7 +13818,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="9" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
@@ -12823,7 +13861,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="9" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="12"/>
@@ -12866,10 +13904,10 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="7" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C78" s="7">
         <v>5</v>
@@ -12901,7 +13939,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="9" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
@@ -12946,7 +13984,7 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="9" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="11"/>
@@ -12989,7 +14027,7 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="9" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="11"/>
@@ -13032,7 +14070,7 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="9" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="12"/>
@@ -13075,10 +14113,10 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="7" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C83" s="7">
         <v>5</v>
@@ -13110,7 +14148,7 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="9" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>47</v>
@@ -13159,7 +14197,7 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="9" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>65</v>
@@ -13204,12 +14242,12 @@
       <c r="Z85" s="14"/>
       <c r="AA85" s="14"/>
     </row>
-    <row r="86" ht="25.5" spans="1:27">
+    <row r="86" ht="38" customHeight="true" spans="1:27">
       <c r="A86" s="9" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -13253,7 +14291,7 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="9" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>55</v>
@@ -13300,10 +14338,10 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="7" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="C88" s="7">
         <v>3</v>
@@ -13335,7 +14373,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="9" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>47</v>
@@ -13384,7 +14422,7 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="9" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>65</v>
@@ -13429,12 +14467,12 @@
       <c r="Z90" s="14"/>
       <c r="AA90" s="14"/>
     </row>
-    <row r="91" ht="25.5" spans="1:27">
+    <row r="91" spans="1:27">
       <c r="A91" s="9" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -13478,7 +14516,7 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="9" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>55</v>
@@ -13525,7 +14563,7 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -13541,7 +14579,7 @@
       </c>
       <c r="H93" s="15">
         <f>SUM(H3:H92)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I93" s="15">
         <f>SUM(I3:I92)</f>
@@ -14461,9 +15499,6 @@
     <mergeCell ref="D89:D92"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
-      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 H3 I3 J3 K3 G4 I4 K4 G5 I5 K5 G6 I6 K6 G7 I7 K7 G8 H8 I8 J8 K8 G9 I9 K9 G10 I10 K10 G11 I11 K11 G12 I12 K12 G13 H13 I13 J13 K13 G14 I14 K14 G15 I15 K15 G16 I16 K16 G17 I17 K17 G18 H18 I18 J18 K18 G19 I19 K19 G20 I20 K20 G21 I21 K21 G22 I22 K22 G23 H23 I23 J23 K23 G24 I24 K24 G25 I25 K25 G26 I26 K26 G27 I27 K27 G28 H28 I28 J28 K28 G29 I29 K29 G30 I30 K30 G31 I31 K31 G32 I32 K32 G33 H33 I33 J33 K33 G34 I34 K34 G35 I35 K35 G36 I36 K36 G37 I37 K37 G38 H38 I38 J38 K38 G39 I39 K39 G40 I40 K40 G41 I41 K41 G42 I42 K42 G43 H43 I43 J43 K43 G44 I44 K44 G45 I45 K45 G46 I46 K46 G47 I47 K47 G48 H48 I48 J48 K48 G49 I49 K49 G50 I50 K50 G51 I51 K51 G52 I52 K52 G53 H53 I53 J53 K53 G54 I54 K54 G55 I55 K55 G56 I56 K56 G57 I57 K57 G58 H58 I58 J58 K58 G59 I59 K59 G60 I60 K60 G61 I61 K61 G62 I62 K62 G63 H63 I63 J63 K63 G64 I64 K64 G65 I65 K65 G66 I66 K66 G67 I67 K67 G68 H68 I68 J68 K68 G69 I69 K69 G70 I70 K70 G71 I71 K71 G72 I72 K72 G73 H73 I73 J73 K73 G74 I74 K74 G75 I75 K75 G76 I76 K76 G77 I77 K77 G78 H78 I78 J78 K78 G79 I79 K79 G80 I80 K80 G81 I81 K81 G82 I82 K82 G83 H83 I83 J83 K83 G84 I84 K84 G85 I85 K85 G86 I86 K86 G87 I87 K87 G88 H88 I88 J88 K88 G89 I89 K89 G90 I90 K90 G91 I91 K91 G92 I92 K92">
       <formula1>0</formula1>
       <formula2>24</formula2>
@@ -14471,6 +15506,9 @@
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 H4 J4 F5 H5 J5 F6 H6 J6 F7 H7 J7 F8 F9 H9 J9 F10 H10 J10 F11 H11 J11 F12 H12 J12 F13 F14 H14 J14 F15 H15 J15 F16 H16 J16 F17 H17 J17 F18 F19 H19 J19 F20 H20 J20 F21 H21 J21 F22 H22 J22 F23 F24 H24 J24 F25 H25 J25 F26 H26 J26 F27 H27 J27 F28 F29 H29 J29 F30 H30 J30 F31 H31 J31 F32 H32 J32 F33 F34 H34 J34 F35 H35 J35 F36 H36 J36 F37 H37 J37 F38 F39 H39 J39 F40 H40 J40 F41 H41 J41 F42 H42 J42 F43 F44 H44 J44 F45 H45 J45 F46 H46 J46 F47 H47 J47 F48 F49 H49 J49 F50 H50 J50 F51 H51 J51 F52 H52 J52 F53 F54 H54 J54 F55 H55 J55 F56 H56 J56 F57 H57 J57 F58 F59 H59 J59 F60 H60 J60 F61 H61 J61 F62 H62 J62 F63 F64 H64 J64 F65 H65 J65 F66 H66 J66 F67 H67 J67 F68 F69 H69 J69 F70 H70 J70 F71 H71 J71 F72 H72 J72 F73 F74 H74 J74 F75 H75 J75 F76 H76 J76 F77 H77 J77 F78 F79 H79 J79 F80 H80 J80 F81 H81 J81 F82 H82 J82 F83 F84 H84 J84 F85 H85 J85 F86 H86 J86 F87 H87 J87 F88 F89 H89 J89 F90 H90 J90 F91 H91 J91 F92 H92 J92">
       <formula1>0</formula1>
       <formula2>40</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:H1">
       <formula1>"Simple,Average,Complex"</formula1>
@@ -14496,17 +15534,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
